--- a/src/main/java/com/qa/insurance/testdata/insurance_testdata.xlsx
+++ b/src/main/java/com/qa/insurance/testdata/insurance_testdata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="18">
   <si>
     <t>Car brand</t>
   </si>
@@ -57,6 +57,15 @@
   <si>
     <t>Tavleen Kour</t>
   </si>
+  <si>
+    <t>- Intentionally Failed Testcase</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Class B</t>
+  </si>
 </sst>
 </file>
 
@@ -65,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -80,6 +89,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -96,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -130,11 +144,30 @@
         <color rgb="FF000000"/>
       </right>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -144,11 +177,8 @@
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -158,6 +188,21 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,6 +419,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="12" max="12" width="5.5"/>
+    <col customWidth="1" min="13" max="13" width="4.5"/>
+    <col customWidth="1" min="14" max="14" width="25.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -394,7 +444,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -411,177 +461,1688 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2012.0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5">
+        <v>39043.0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>10004.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2013.0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5">
+        <v>39043.0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>10004.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>2014.0</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5">
         <v>39043.0</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H4" s="4">
         <v>10004.0</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I4" s="4">
         <v>2.0</v>
       </c>
-      <c r="J2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="J4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
         <v>1800.0</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5">
         <v>37354.0</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H5" s="4">
         <v>10010.0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I5" s="4">
         <v>5.0</v>
       </c>
-      <c r="J3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="J5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
         <v>1870.0</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5">
         <v>37354.0</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H6" s="4">
         <v>10010.0</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I6" s="4">
         <v>5.0</v>
       </c>
-      <c r="J4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="J6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1970.0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5">
+        <v>37354.0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10010.0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5">
         <v>40188.0</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H8" s="4">
         <v>12001.0</v>
       </c>
-      <c r="I5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5">
         <v>40188.0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H9" s="4">
         <v>12001.0</v>
       </c>
-      <c r="I6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="b">
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5">
+        <v>40188.0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>12001.0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5">
+        <v>44104.0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>10005.0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5">
+        <v>44104.0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>10005.0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="11">
+        <v>44104.0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>10005.0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="J13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2012.0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5">
+        <v>39043.0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>10004.0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2013.0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5">
+        <v>39043.0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>10004.0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2014.0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="5">
+        <v>39043.0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>10004.0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2015.0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="5">
+        <v>37354.0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10010.0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2016.0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="5">
+        <v>37354.0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>10010.0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2017.0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="5">
+        <v>37354.0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>10010.0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="5">
+        <v>40188.0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>12001.0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="5">
+        <v>40188.0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>12001.0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="5">
+        <v>40188.0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>12001.0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="5">
+        <v>44104.0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>10005.0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="5">
+        <v>44104.0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>10005.0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="11">
+        <v>44104.0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>10005.0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2012.0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="5">
+        <v>39043.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>10004.0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2013.0</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="5">
+        <v>39043.0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>10004.0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2014.0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="5">
+        <v>39043.0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>10004.0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J28" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2015.0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="5">
+        <v>37354.0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>10010.0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2016.0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="5">
+        <v>37354.0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>10010.0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J30" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2017.0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="5">
+        <v>37354.0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>10010.0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="5">
+        <v>40188.0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>12001.0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="5">
+        <v>40188.0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>12001.0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="5">
+        <v>40188.0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>12001.0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="5">
+        <v>44104.0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>10005.0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="5">
+        <v>44104.0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>10005.0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="11">
+        <v>44104.0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>10005.0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="J37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2012.0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="5">
+        <v>39043.0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>10004.0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2013.0</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="5">
+        <v>39043.0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>10004.0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2014.0</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="5">
+        <v>39043.0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>10004.0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J40" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2015.0</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="5">
+        <v>37354.0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>10010.0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J41" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2016.0</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="5">
+        <v>37354.0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>10010.0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2017.0</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="5">
+        <v>37354.0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>10010.0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="5">
+        <v>40188.0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>12001.0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="5">
+        <v>40188.0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>12001.0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="5">
+        <v>40188.0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>12001.0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="5">
+        <v>44104.0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>10005.0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="5">
+        <v>44104.0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>10005.0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="11">
+        <v>44104.0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>10005.0</v>
+      </c>
+      <c r="I49" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="J49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" s="9" t="b">
         <v>0</v>
       </c>
     </row>
